--- a/asset/과목양식.xlsx
+++ b/asset/과목양식.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,18 +416,15 @@
         <v>수강인원</v>
       </c>
       <c r="E1" t="str">
-        <v>반</v>
+        <v>강좌대표교수</v>
       </c>
       <c r="F1" t="str">
-        <v>강좌대표교수</v>
-      </c>
-      <c r="G1" t="str">
         <v>교과목학점</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F1"/>
   </ignoredErrors>
 </worksheet>
 </file>